--- a/tests/data/output/一级报告详情测试用例-17001_result.xlsx
+++ b/tests/data/output/一级报告详情测试用例-17001_result.xlsx
@@ -570,190 +570,190 @@
     <t>true</t>
   </si>
   <si>
-    <t>{"user_name":"孙桂香","id_card_no":"370522195710046428","phone":"15985503970"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"刘红梅","id_card_no":"421083199502086950","phone":"14550657125"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"高秀英","id_card_no":"220422199310130145","phone":"15550375424"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"杨玉","id_card_no":"440105197903040195","phone":"13166165857"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"邢军","id_card_no":"152224198608303193","phone":"13747423696"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"田金凤","id_card_no":"12011519911230282X","phone":"18706092731"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"庞岩","id_card_no":"460107197311301378","phone":"18190924204"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"马博","id_card_no":"341821199601061841","phone":"15006242280"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"曹金凤","id_card_no":"421121196711036901","phone":"15313494030"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"冯凯","id_card_no":"130722198103156414","phone":"18169940446"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王建军","id_card_no":"330825194309250098","phone":"15977307267"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"欧阳娟","id_card_no":"341701200107055678","phone":"13410207822"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"郝小红","id_card_no":"433124193911246902","phone":"18817497578"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"邢伟","id_card_no":"150824196311095006","phone":"14573421017"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"邱淑华","id_card_no":"44130120000324234X","phone":"13285795083"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"龚颖","id_card_no":"150502192912213757","phone":"15195076842"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"卢凤兰","id_card_no":"640201194307252099","phone":"15099341313"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张晨","id_card_no":"410501194708291703","phone":"14528207025"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王瑞","id_card_no":"420322198802088497","phone":"15698034360"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张凤兰","id_card_no":"150125198910194310","phone":"15175198141"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"朱丽华","id_card_no":"370783198403100524","phone":"15329668184"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"高军","id_card_no":"150302196904139638","phone":"15886534088"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王桂花","id_card_no":"370601195407251713","phone":"15714937166"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"戴丽丽","id_card_no":"140981194912134711","phone":"14560978894"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"刘凯","id_card_no":"230706193909073221","phone":"13709341700"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"袁丹丹","id_card_no":"420381198511254432","phone":"13391874250"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"孙华","id_card_no":"150102197512162867","phone":"13203471857"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王红","id_card_no":"620524194107176391","phone":"13457991000"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"宋浩","id_card_no":"65400319960315272X","phone":"15648328320"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李斌","id_card_no":"451031199301256983","phone":"13751271195"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王玉兰","id_card_no":"62080119920927224X","phone":"18796566393"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"刘秀珍","id_card_no":"150900199704047628","phone":"13089767714"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"周林","id_card_no":"430902199605180060","phone":"18707392667"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"何丹","id_card_no":"330105195405306478","phone":"13026916425"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"冉梅","id_card_no":"652800197108144523","phone":"13776688372"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张建国","id_card_no":"23040519610509807X","phone":"13642474707"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"孙春梅","id_card_no":"370305198204021742","phone":"14558961716"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张鑫","id_card_no":"61070119390315357X","phone":"13917805830"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"贾俊","id_card_no":"511702197709294661","phone":"13563370267"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李佳","id_card_no":"440305199410089820","phone":"14797492608"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李博","id_card_no":"441203197506098637","phone":"13302140968"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"邓利","id_card_no":"32110119510221035X","phone":"15565388032"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"洪欢","id_card_no":"230600198003024836","phone":"13643185692"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"曾彬","id_card_no":"140303193906207121","phone":"13478391435"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"杨桂芳","id_card_no":"540223198202038937","phone":"14794025563"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王桂芝","id_card_no":"360823196501223606","phone":"14560222706"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张建","id_card_no":"341300194807098365","phone":"14708165237"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李淑华","id_card_no":"62010319610722351X","phone":"15739005663"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"饶平","id_card_no":"431124194504269907","phone":"13297102151"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"张博","id_card_no":"440882195210190512","phone":"15281821413"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李利","id_card_no":"620622193602071894","phone":"13340092629"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王金凤","id_card_no":"445100199003155511","phone":"18170582383"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王瑜","id_card_no":"610481198308284370","phone":"13054633569"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王桂芳","id_card_no":"21100219991110266X","phone":"18556266471"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李涛","id_card_no":"140226195705150980","phone":"15644787838"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"许海燕","id_card_no":"52263319930505665X","phone":"14725031284"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"钟丽娟","id_card_no":"632324194502141589","phone":"14505087625"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"伍秀荣","id_card_no":"110101194210240797","phone":"13965333299"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"卢平","id_card_no":"141123196902085859","phone":"18054302688"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王红","id_card_no":"511011200009079760","phone":"15687324197"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"刘岩","id_card_no":"130535198107243583","phone":"15144878318"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"金金凤","id_card_no":"430201193405016141","phone":"15042717154"}</t>
+    <t>{"user_name":"罗洋","id_card_no":"210411193706034522","phone":"15996917262"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈东","id_card_no":"522324194604070771","phone":"18146374967"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"彭淑英","id_card_no":"411481194512158430","phone":"15643775841"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈东","id_card_no":"140500194412239402","phone":"18251768404"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"唐凤兰","id_card_no":"150901192909120010","phone":"13924956032"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"芮春梅","id_card_no":"141081198503031236","phone":"13737562546"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"张秀兰","id_card_no":"511902194906236046","phone":"13047780559"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"蒋博","id_card_no":"220601197903224518","phone":"13938129831"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈莉","id_card_no":"421124195106148846","phone":"15836445772"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"丁琴","id_card_no":"610422196308185162","phone":"18724593314"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"杜平","id_card_no":"411224198201261246","phone":"18971300068"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"涂坤","id_card_no":"469001199309115203","phone":"13452329357"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"郑海燕","id_card_no":"450122194903056829","phone":"14548114352"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"李玉华","id_card_no":"610728199406117401","phone":"18597491987"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈林","id_card_no":"441625196310168336","phone":"18554076001"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"张红","id_card_no":"130801199605149618","phone":"13467904625"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈玉珍","id_card_no":"141001196006067704","phone":"18170503090"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"杨宁","id_card_no":"522622197511250324","phone":"13460324819"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王小红","id_card_no":"130502194912311707","phone":"18930083984"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"黄彬","id_card_no":"610528195001046028","phone":"18908027782"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"余晨","id_card_no":"350400193009116890","phone":"14763122980"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"徐红霞","id_card_no":"330802195608147699","phone":"13285328842"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"张彬","id_card_no":"621122195302112650","phone":"13510153263"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"董淑珍","id_card_no":"150207194712032462","phone":"18714688398"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王秀梅","id_card_no":"152223198611258737","phone":"14563867818"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"朱桂英","id_card_no":"360102196109085990","phone":"15699748611"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"柴秀华","id_card_no":"632223194009045479","phone":"18754729386"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"聂勇","id_card_no":"410322194904248156","phone":"14536316442"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王东","id_card_no":"130425198401162620","phone":"18026509040"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"敖秀荣","id_card_no":"371523195711033781","phone":"15856407692"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"杨英","id_card_no":"140928197504182775","phone":"15882412705"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"吴桂珍","id_card_no":"220203195211279421","phone":"13152561567"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈琳","id_card_no":"430300198601125355","phone":"18901607510"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘波","id_card_no":"622901193708278742","phone":"15199799255"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"李桂珍","id_card_no":"530423198201118096","phone":"15036975245"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈英","id_card_no":"13093019330526266X","phone":"15904511977"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘杰","id_card_no":"632521197809239631","phone":"13905501267"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王琳","id_card_no":"511028198503046283","phone":"18794224708"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘柳","id_card_no":"50011019291018022X","phone":"18567867884"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"万雪","id_card_no":"652324195008167984","phone":"18680676599"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"张玉华","id_card_no":"220602194608020347","phone":"15919881383"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"潘俊","id_card_no":"533421194611240205","phone":"18191003032"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"汪霞","id_card_no":"621226198205251784","phone":"15302635659"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"詹楠","id_card_no":"330803193810227155","phone":"15949945041"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈莹","id_card_no":"450100199802036479","phone":"15917245800"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王丽娟","id_card_no":"430900197303047262","phone":"13556483538"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘娜","id_card_no":"370800199301306838","phone":"13209685661"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"唐楠","id_card_no":"220622196903197377","phone":"14796571498"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"丁玉","id_card_no":"659003194311246179","phone":"14713202510"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王琳","id_card_no":"532322197402147497","phone":"13803097129"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"杜小红","id_card_no":"653126194901074797","phone":"13652630829"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"苏燕","id_card_no":"441200195705106769","phone":"13125557501"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"朱桂英","id_card_no":"341621194511288328","phone":"18794649827"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王瑞","id_card_no":"440511198608106984","phone":"13318075554"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王萍","id_card_no":"150501199901031021","phone":"13622734520"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"黄鹏","id_card_no":"445201198409106944","phone":"15594029153"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"杨明","id_card_no":"32083119411010139X","phone":"13912441126"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"马艳","id_card_no":"230701198207108355","phone":"18509469276"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"高飞","id_card_no":"430511196002081187","phone":"15082704816"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"孙博","id_card_no":"360323194911266143","phone":"13877663421"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"阎晶","id_card_no":"410724193608186827","phone":"18654281945"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"秦丹丹","id_card_no":"511803195402011025","phone":"15840256480"}</t>
   </si>
 </sst>
 </file>

--- a/tests/data/output/一级报告详情测试用例-17001_result.xlsx
+++ b/tests/data/output/一级报告详情测试用例-17001_result.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"狄建军","id_card_no":"140829200007073936","phone":"13486642003"}</t>
+          <t>{"user_name":"洪华","id_card_no":"222403196509015127","phone":"13575672487"}</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"终斌","id_card_no":"510182196006128476","phone":"15124263148"}</t>
+          <t>{"user_name":"董婷婷","id_card_no":"610323198512019743","phone":"18174306256"}</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"林秀梅","id_card_no":"330683198505098127","phone":"15691005579"}</t>
+          <t>{"user_name":"桂桂珍","id_card_no":"320116198609210161","phone":"18121966528"}</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"计桂香","id_card_no":"320505194302052634","phone":"15189930503"}</t>
+          <t>{"user_name":"荣晨","id_card_no":"431281199101114260","phone":"15985375079"}</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"那小红","id_card_no":"510321197806309657","phone":"15040440366"}</t>
+          <t>{"user_name":"淳玉珍","id_card_no":"654324198307213093","phone":"15694849210"}</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"太旭","id_card_no":"654021193303096004","phone":"18092141599"}</t>
+          <t>{"user_name":"邵峰","id_card_no":"450328197407191688","phone":"18694174430"}</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"巴桂兰","id_card_no":"610927194203232997","phone":"13361075997"}</t>
+          <t>{"user_name":"郭宁","id_card_no":"430923195801020690","phone":"18524781617"}</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"公秀芳","id_card_no":"320117194312224800","phone":"13431081676"}</t>
+          <t>{"user_name":"解玉珍","id_card_no":"411121196904028025","phone":"14590496260"}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"仉文","id_card_no":"610404195303122296","phone":"15318338539"}</t>
+          <t>{"user_name":"钦慧","id_card_no":"330100195409288957","phone":"13001649646"}</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"公玉珍","id_card_no":"141125192910067954","phone":"14715368689"}</t>
+          <t>{"user_name":"别建华","id_card_no":"340721193410239551","phone":"15127873656"}</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"舒萍","id_card_no":"210100193501230946","phone":"18248834981"}</t>
+          <t>{"user_name":"洪秀华","id_card_no":"360724193110102775","phone":"18010566522"}</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"易淑珍","id_card_no":"440106194107130360","phone":"15886018502"}</t>
+          <t>{"user_name":"韶玉华","id_card_no":"220701196502104292","phone":"15691629369"}</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"正琴","id_card_no":"130107199801155468","phone":"13388341377"}</t>
+          <t>{"user_name":"台慧","id_card_no":"620901193601199196","phone":"13945810872"}</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"窦淑华","id_card_no":"320982195302247473","phone":"13778459261"}</t>
+          <t>{"user_name":"饶燕","id_card_no":"542425196705141561","phone":"13089769042"}</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"孟小红","id_card_no":"33070219410417815X","phone":"14552465724"}</t>
+          <t>{"user_name":"廖杰","id_card_no":"430781193504191075","phone":"14781356020"}</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"郁军","id_card_no":"340000195108158899","phone":"13324604098"}</t>
+          <t>{"user_name":"林琴","id_card_no":"41162119970905347X","phone":"18076752407"}</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"富成","id_card_no":"321203198012147555","phone":"13592281725"}</t>
+          <t>{"user_name":"养强","id_card_no":"620401199606261032","phone":"18993166018"}</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"木健","id_card_no":"230102193405102131","phone":"13220773761"}</t>
+          <t>{"user_name":"松娟","id_card_no":"371203196904288636","phone":"14565177540"}</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"简阳","id_card_no":"140222194306078934","phone":"14507691410"}</t>
+          <t>{"user_name":"雕波","id_card_no":"321323193508251266","phone":"18211387099"}</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"湛玉","id_card_no":"610830195801010902","phone":"18005820189"}</t>
+          <t>{"user_name":"怀丽丽","id_card_no":"632322196109176714","phone":"15996698200"}</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"寇丽丽","id_card_no":"371625193811262273","phone":"18228600494"}</t>
+          <t>{"user_name":"费想","id_card_no":"220422194905267199","phone":"18620096204"}</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"葛鹏","id_card_no":"430204197108304400","phone":"18532983502"}</t>
+          <t>{"user_name":"邱霞","id_card_no":"340826195609236530","phone":"13508678790"}</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"琴海燕","id_card_no":"131024198701271581","phone":"18144203362"}</t>
+          <t>{"user_name":"狐超","id_card_no":"210404196503177160","phone":"15774699984"}</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"殷玉","id_card_no":"500105198906073428","phone":"15335744685"}</t>
+          <t>{"user_name":"闻玉梅","id_card_no":"371402197001177686","phone":"13428263733"}</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"闵桂珍","id_card_no":"330182199910057039","phone":"13340664533"}</t>
+          <t>{"user_name":"易桂兰","id_card_no":"41152819700423473X","phone":"13975440635"}</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"利欣","id_card_no":"370832197611209437","phone":"15161300353"}</t>
+          <t>{"user_name":"董玉","id_card_no":"410882194611141025","phone":"18057867954"}</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"苏华","id_card_no":"131121198112266019","phone":"18707750173"}</t>
+          <t>{"user_name":"晋涛","id_card_no":"511321193107113818","phone":"18868916658"}</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"狄秀云","id_card_no":"431200199203227700","phone":"14717356650"}</t>
+          <t>{"user_name":"阴玉","id_card_no":"230713198406292322","phone":"13474454210"}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"孙丽","id_card_no":"34030319701111195X","phone":"18031888116"}</t>
+          <t>{"user_name":"赵峰","id_card_no":"610111199205257870","phone":"13911138714"}</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"门丹丹","id_card_no":"652200196308301071","phone":"18193691478"}</t>
+          <t>{"user_name":"叶杰","id_card_no":"654000197810019624","phone":"18738433857"}</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"葛军","id_card_no":"450105197703245120","phone":"14731500756"}</t>
+          <t>{"user_name":"蓟志强","id_card_no":"620722199106048102","phone":"18687861030"}</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"严楠","id_card_no":"411282197702181075","phone":"13980001135"}</t>
+          <t>{"user_name":"阳斌","id_card_no":"210323194709049767","phone":"13929258187"}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"刘东","id_card_no":"150222198609298803","phone":"15860940204"}</t>
+          <t>{"user_name":"淳玲","id_card_no":"370827199601167884","phone":"13687473953"}</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"user_name":"燕晶","id_card_no":"431101197911148343","phone":"13997429866"}</t>
+          <t>{"user_name":"辕宇","id_card_no":"330105195707210922","phone":"18610515883"}</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"user_name":"子龙","id_card_no":"520100197612256306","phone":"15232575585"}</t>
+          <t>{"user_name":"经瑞","id_card_no":"230805195801297264","phone":"13821896727"}</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"user_name":"冯慧","id_card_no":"411402199309235928","phone":"14579853298"}</t>
+          <t>{"user_name":"向秀英","id_card_no":"230201195404144514","phone":"18648715968"}</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"user_name":"毕海燕","id_card_no":"230303196703204401","phone":"13214646814"}</t>
+          <t>{"user_name":"殳玉","id_card_no":"451101196505248583","phone":"15194247337"}</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"user_name":"邓峰","id_card_no":"341621197810125928","phone":"13347949030"}</t>
+          <t>{"user_name":"於想","id_card_no":"210400199005128786","phone":"15240802956"}</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"user_name":"终秀云","id_card_no":"23122619830106541X","phone":"18011489431"}</t>
+          <t>{"user_name":"韶琴","id_card_no":"520521195511269663","phone":"15385150780"}</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"user_name":"包凯","id_card_no":"530521195811133129","phone":"13024325915"}</t>
+          <t>{"user_name":"慎涛","id_card_no":"130321196808244599","phone":"18988279991"}</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"user_name":"易红霞","id_card_no":"650121198704176552","phone":"13248534716"}</t>
+          <t>{"user_name":"驷飞","id_card_no":"532932196208028268","phone":"13128171562"}</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"user_name":"诸慧","id_card_no":"522300194412019671","phone":"14595325443"}</t>
+          <t>{"user_name":"于宁","id_card_no":"53090119790629561X","phone":"15769275494"}</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"user_name":"壤莹","id_card_no":"532928199312269239","phone":"13268673164"}</t>
+          <t>{"user_name":"子雷","id_card_no":"511802195201190526","phone":"13130803798"}</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"user_name":"严萍","id_card_no":"330201193210121263","phone":"15368744578"}</t>
+          <t>{"user_name":"贝桂英","id_card_no":"130302195512205829","phone":"15574570677"}</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"user_name":"空莹","id_card_no":"150121200002059708","phone":"18155742558"}</t>
+          <t>{"user_name":"芮洁","id_card_no":"522630199601267313","phone":"13704539107"}</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"user_name":"毛小红","id_card_no":"350524194101032359","phone":"18590221341"}</t>
+          <t>{"user_name":"阳金凤","id_card_no":"370402199107259135","phone":"13222558745"}</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"user_name":"翁荣","id_card_no":"450981193408212459","phone":"14593570342"}</t>
+          <t>{"user_name":"顾秀荣","id_card_no":"510115199904079972","phone":"13123189964"}</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"user_name":"殳平","id_card_no":"230101197604222533","phone":"18882383746"}</t>
+          <t>{"user_name":"阮军","id_card_no":"640122196306152710","phone":"15274535539"}</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"user_name":"毛洋","id_card_no":"440701195202065814","phone":"15329710961"}</t>
+          <t>{"user_name":"连建华","id_card_no":"350602194101021569","phone":"13834025964"}</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"user_name":"长岩","id_card_no":"13058119721229348X","phone":"18986315423"}</t>
+          <t>{"user_name":"台秀兰","id_card_no":"510822199812100158","phone":"13430216712"}</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"user_name":"单峰","id_card_no":"310108198512157382","phone":"15261585212"}</t>
+          <t>{"user_name":"邱秀芳","id_card_no":"210000193704261640","phone":"13594358466"}</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"user_name":"公柳","id_card_no":"441203193106236967","phone":"15933710888"}</t>
+          <t>{"user_name":"薄倩","id_card_no":"220521196702173377","phone":"15659197796"}</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"user_name":"巩桂芳","id_card_no":"350982198903078045","phone":"13909862216"}</t>
+          <t>{"user_name":"益婷婷","id_card_no":"371002197005077357","phone":"14509027791"}</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"user_name":"通桂花","id_card_no":"340311195711199498","phone":"13311609497"}</t>
+          <t>{"user_name":"史亮","id_card_no":"431224196508310772","phone":"15330888991"}</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"user_name":"孙波","id_card_no":"42090019750818252X","phone":"13044980442"}</t>
+          <t>{"user_name":"钟琴","id_card_no":"52038219700221231X","phone":"15863326739"}</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"user_name":"东强","id_card_no":"530625198205223743","phone":"13648426792"}</t>
+          <t>{"user_name":"后玉英","id_card_no":"321282193402107332","phone":"18067231006"}</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"user_name":"屠宁","id_card_no":"211121195607220190","phone":"15128395504"}</t>
+          <t>{"user_name":"臧慧","id_card_no":"420704194011260060","phone":"13056180928"}</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"user_name":"牟芳","id_card_no":"620101197604016716","phone":"15075260202"}</t>
+          <t>{"user_name":"家涛","id_card_no":"440804194707039304","phone":"18722365932"}</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"user_name":"夹玉梅","id_card_no":"371311193709193908","phone":"13165875527"}</t>
+          <t>{"user_name":"包磊","id_card_no":"532327193102130232","phone":"15723307632"}</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"user_name":"任健","id_card_no":"370000199706308539","phone":"15926802190"}</t>
+          <t>{"user_name":"丘桂珍","id_card_no":"532524197602099251","phone":"15196671161"}</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"user_name":"管建国","id_card_no":"450226200006202346","phone":"13496512408"}</t>
+          <t>{"user_name":"路玉英","id_card_no":"542229194404016922","phone":"18859676810"}</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>{"user_name":"单利","id_card_no":"340000198009019467","phone":"15361871027"}</t>
+          <t>{"user_name":"房柳","id_card_no":"370523198701119568","phone":"18154182415"}</t>
         </is>
       </c>
     </row>
